--- a/Uploads/Book1.xlsx
+++ b/Uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B46DA-585F-41A3-83C8-3D676078CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D07B54-90F2-4B78-BA11-F98374BC37D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{71CFF2CC-B3B3-4293-893A-F1040A172A72}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="24">
   <si>
     <t>ô là la</t>
   </si>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7EA401-F8AF-4FFB-A303-563F3E387647}" name="CauHoi" displayName="CauHoi" ref="A1:L3" totalsRowShown="0">
-  <autoFilter ref="A1:L3" xr:uid="{CC7EA401-F8AF-4FFB-A303-563F3E387647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC7EA401-F8AF-4FFB-A303-563F3E387647}" name="CauHoi" displayName="CauHoi" ref="A1:L111" totalsRowShown="0">
+  <autoFilter ref="A1:L111" xr:uid="{CC7EA401-F8AF-4FFB-A303-563F3E387647}"/>
   <tableColumns count="12">
     <tableColumn id="5" xr3:uid="{1DEACCF7-8755-43BC-9AEA-A12E2BF7179A}" name="maCauHoi"/>
     <tableColumn id="1" xr3:uid="{CD729CF3-FE0E-45FD-BE1C-F0460B860C9F}" name="noiDungCauHoi"/>
@@ -613,10 +613,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80022C1F-6589-4C24-9314-460F4BE3F2BC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,10 +675,10 @@
       </c>
       <c r="C2" s="1">
         <f>INDEX(ChuDeBaiQuiz[],MATCH(D2,ChuDeBaiQuiz[tenChuDe],0),1)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -738,6 +738,3894 @@
         <v>4</v>
       </c>
       <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D4,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D5,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D6,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D7,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D8,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D9,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D10,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D11,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D12,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D13,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D14,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D15,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D16,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D17,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D18,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D19,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D20,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D21,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D22,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D23,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D24,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D25,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D26,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D27,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D28,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D29,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D30,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D31,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D32,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D33,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D34,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D35,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D36,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D37,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D38,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D39,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D40,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D41,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D42,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D43,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D44,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D45,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D46,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D47,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D48,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D49,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D50,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D51,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D52,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D53,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D54,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D55,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D56,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D57,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D58,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D59,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D60,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D61,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D62,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D63,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D64,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D65,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D66,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D67,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D68,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D69,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D70,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D71,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D72,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D73,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D74,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D75,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D76,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D77,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D78,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D79,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D80,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D81,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D82,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D83,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D84,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D85,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D86,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D87,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D88,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D89,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D90,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D91,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D92,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D93,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D94,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D95,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D96,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D97,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>4</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D98,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D99,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D100,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D101,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D102,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D103,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>4</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D104,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D105,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>4</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D106,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>4</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D107,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>4</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D108,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D109,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>4</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D110,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>4</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <f>INDEX(ChuDeBaiQuiz[],MATCH(D111,ChuDeBaiQuiz[tenChuDe],0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>4</v>
+      </c>
+      <c r="L111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +4641,7 @@
           <x14:formula1>
             <xm:f>'ChuDeBaiQuiz'!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D3</xm:sqref>
+          <xm:sqref>D2:D111</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
